--- a/PhoneInfoServerIIS/Dev/Record.xlsx
+++ b/PhoneInfoServerIIS/Dev/Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ll\Desktop\PhoneInfoServerIIS\PhoneInfoServerIIS\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\PhoneInfoServerIIS\PhoneInfoServerIIS\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3061A86-CC4A-483A-BB88-16AD26D1EA5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC799DE2-6060-40EE-9F78-329213E18941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="9285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="181">
   <si>
     <t>项目</t>
   </si>
@@ -563,18 +563,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UploadTtLTECellInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetLTECellInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,10 +583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetTtLTECellInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上传铁塔工参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,6 +663,34 @@
   </si>
   <si>
     <t>增加账号接口、工参接口、铁塔工参接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetLteCellInfo</t>
+  </si>
+  <si>
+    <t>GetTtLteCellInfo</t>
+  </si>
+  <si>
+    <t>UploadTtLteCellInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDtGroup</t>
+  </si>
+  <si>
+    <t>获取测试组信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可传递GroupID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadDtGroup</t>
+  </si>
+  <si>
+    <t>上传测试组信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -780,13 +796,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +856,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1349,7 @@
         <v>43468</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -1825,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC083895-FA8B-4D2D-BD04-6F2A2AF7FA97}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2347,60 +2377,79 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.51kpi.cn:7062/default.ashx/?func=UploadTtLTECellInfo</v>
+        <v>http://www.51kpi.cn:7062/default.ashx/?func=UploadTtLteCellInfo</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.51kpi.cn:7062/default.ashx/?func=GetLTECellInfo</v>
+        <v>http://www.51kpi.cn:7062/default.ashx/?func=GetLteCellInfo</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="C30" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.51kpi.cn:7062/default.ashx/?func=GetTtLTECellInfo</v>
+        <v>http://www.51kpi.cn:7062/default.ashx/?func=GetTtLteCellInfo</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +2639,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2705,7 +2754,7 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2725,7 +2774,7 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -2905,7 +2954,7 @@
         <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3049,10 +3098,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBBD887-4149-458E-AB42-2FA42A4BF68A}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3188,7 +3237,7 @@
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3208,7 +3257,7 @@
         <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3348,7 +3397,7 @@
         <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3401,6 +3450,111 @@
       <c r="E18" t="str">
         <f t="shared" si="2"/>
         <v>ID,carrier,province,city,district,enodebName,enodebName_Tt,state,lon,lat,gdLon,gdLat,siteType,h,address,demo,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" t="str">
+        <f>E22&amp;A23 &amp;","</f>
+        <v>groupId,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ref="E24:E34" si="4">E23&amp;A24 &amp;","</f>
+        <v>groupId,line,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="4"/>
+        <v>groupId,line,name_cm,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="4"/>
+        <v>groupId,line,name_cm,imei_cm,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="4"/>
+        <v>groupId,line,name_cm,imei_cm,phone_cm,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="4"/>
+        <v>groupId,line,name_cm,imei_cm,phone_cm,name_cu,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="4"/>
+        <v>groupId,line,name_cm,imei_cm,phone_cm,name_cu,imei_cu,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="4"/>
+        <v>groupId,line,name_cm,imei_cm,phone_cm,name_cu,imei_cu,phone_cu,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="4"/>
+        <v>groupId,line,name_cm,imei_cm,phone_cm,name_cu,imei_cu,phone_cu,name_ct,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="4"/>
+        <v>groupId,line,name_cm,imei_cm,phone_cm,name_cu,imei_cu,phone_cu,name_ct,imei_ct,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="4"/>
+        <v>groupId,line,name_cm,imei_cm,phone_cm,name_cu,imei_cu,phone_cu,name_ct,imei_ct,phone_ct,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E34" t="str">
+        <f t="shared" si="4"/>
+        <v>groupId,line,name_cm,imei_cm,phone_cm,name_cu,imei_cu,phone_cu,name_ct,imei_ct,phone_ct,,</v>
       </c>
     </row>
   </sheetData>
@@ -3412,29 +3566,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17304E-9E65-4714-B750-2605845229A5}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D1" t="str">
         <f>"CREATE TABLE "&amp;C1&amp;"("&amp;D18 &amp;")"</f>
         <v>CREATE TABLE test_Group(Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),imei_ct varchar(50),phone_ct varchar(50),modified_datetime varchar(50),modified_by varchar(50),demo varchar(50),)</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>124</v>
@@ -3448,7 +3602,7 @@
         <v>Id number,</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>140</v>
       </c>
@@ -3456,15 +3610,23 @@
         <v>125</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C17" si="0">A3 &amp;" "&amp;B3 &amp;","</f>
+        <f t="shared" ref="C3:C10" si="0">A3 &amp;" "&amp;B3 &amp;","</f>
         <v>province varchar(50),</v>
       </c>
       <c r="D3" t="str">
         <f>D2&amp;C3</f>
         <v>Id number,province varchar(50),</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="str">
+        <f>" row("""&amp; A3 &amp;""".ToUpper) = itm."&amp; A3</f>
+        <v xml:space="preserve"> row("province".ToUpper) = itm.province</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3 &amp;":"""&amp; ""&amp;""","</f>
+        <v>province:"",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>103</v>
       </c>
@@ -3479,10 +3641,18 @@
         <f>D3&amp;C4</f>
         <v>Id number,province varchar(50),city varchar(50),</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E18" si="1">" row("""&amp; A4 &amp;""".ToUpper) = itm."&amp; A4</f>
+        <v xml:space="preserve"> row("city".ToUpper) = itm.city</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F18" si="2">A4 &amp;":"""&amp; ""&amp;""","</f>
+        <v>city:"",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>125</v>
@@ -3492,216 +3662,328 @@
         <v>groupId varchar(50),</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D17" si="1">D4&amp;C5</f>
+        <f t="shared" ref="D5:D10" si="3">D4&amp;C5</f>
         <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> row("groupId".ToUpper) = itm.groupId</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>groupId:"",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>line varchar(50),</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="3"/>
+        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> row("line".ToUpper) = itm.line</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>line:"",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>name_cm varchar(50),</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="3"/>
+        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> row("name_cm".ToUpper) = itm.name_cm</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>name_cm:"",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>imei_cm varchar(50),</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="3"/>
+        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> row("imei_cm".ToUpper) = itm.imei_cm</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>imei_cm:"",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>line varchar(50),</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="B9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>phone_cm varchar(50),</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="3"/>
+        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+        <v xml:space="preserve"> row("phone_cm".ToUpper) = itm.phone_cm</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>phone_cm:"",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>name_cm varchar(50),</v>
-      </c>
-      <c r="D7" t="str">
+      <c r="B10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>name_cu varchar(50),</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="3"/>
+        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),</v>
+      </c>
+      <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+        <v xml:space="preserve"> row("name_cu".ToUpper) = itm.name_cu</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>name_cu:"",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>imei_cm varchar(50),</v>
-      </c>
-      <c r="D8" t="str">
+      <c r="B11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ref="C11:C18" si="4">A11 &amp;" "&amp;B11 &amp;","</f>
+        <v>imei_cu varchar(50),</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D18" si="5">D10&amp;C11</f>
+        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),</v>
+      </c>
+      <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+        <v xml:space="preserve"> row("imei_cu".ToUpper) = itm.imei_cu</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>imei_cu:"",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>phone_cm varchar(50),</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="B12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="4"/>
+        <v>phone_cu varchar(50),</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="5"/>
+        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+        <v xml:space="preserve"> row("phone_cu".ToUpper) = itm.phone_cu</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>phone_cu:"",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>name_cu varchar(50),</v>
-      </c>
-      <c r="D10" t="str">
+      <c r="B13" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="4"/>
+        <v>name_ct varchar(50),</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="5"/>
+        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),</v>
+      </c>
+      <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+        <v xml:space="preserve"> row("name_ct".ToUpper) = itm.name_ct</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>name_ct:"",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" ref="C11:C18" si="2">A11 &amp;" "&amp;B11 &amp;","</f>
-        <v>imei_cu varchar(50),</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:D18" si="3">D10&amp;C11</f>
-        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="B14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="4"/>
+        <v>imei_ct varchar(50),</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="5"/>
+        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),imei_ct varchar(50),</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> row("imei_ct".ToUpper) = itm.imei_ct</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>imei_ct:"",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="2"/>
-        <v>phone_cu varchar(50),</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="3"/>
-        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="2"/>
-        <v>name_ct varchar(50),</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="3"/>
-        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="2"/>
-        <v>imei_ct varchar(50),</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="3"/>
-        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),imei_ct varchar(50),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
-        <v>173</v>
-      </c>
       <c r="B15" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>phone_ct varchar(50),</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),imei_ct varchar(50),phone_ct varchar(50),</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> row("phone_ct".ToUpper) = itm.phone_ct</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>phone_ct:"",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>modified_datetime varchar(50),</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),imei_ct varchar(50),phone_ct varchar(50),modified_datetime varchar(50),</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> row("modified_datetime".ToUpper) = itm.modified_datetime</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>modified_datetime:"",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>modified_by varchar(50),</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),imei_ct varchar(50),phone_ct varchar(50),modified_datetime varchar(50),modified_by varchar(50),</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> row("modified_by".ToUpper) = itm.modified_by</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>modified_by:"",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>164</v>
-      </c>
       <c r="C18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>demo varchar(50),</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),imei_ct varchar(50),phone_ct varchar(50),modified_datetime varchar(50),modified_by varchar(50),demo varchar(50),</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> row("demo".ToUpper) = itm.demo</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>demo:"",</v>
       </c>
     </row>
   </sheetData>

--- a/PhoneInfoServerIIS/Dev/Record.xlsx
+++ b/PhoneInfoServerIIS/Dev/Record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\PhoneInfoServerIIS\PhoneInfoServerIIS\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作文档\老秦项目\荆州项目\PhoneInfoServerIIS\PhoneInfoServerIIS\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC799DE2-6060-40EE-9F78-329213E18941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C24619-26EE-49BC-B8E7-6B75BA57A908}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="9285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="186">
   <si>
     <t>项目</t>
   </si>
@@ -691,6 +691,22 @@
   </si>
   <si>
     <t>上传测试组信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddSysModule</t>
+  </si>
+  <si>
+    <t>DeleteSysModule</t>
+  </si>
+  <si>
+    <t>UpdateSysModule</t>
+  </si>
+  <si>
+    <t>GetSysModule</t>
+  </si>
+  <si>
+    <t>增删改查 系统查询模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -807,13 +823,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,9 +886,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1855,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC083895-FA8B-4D2D-BD04-6F2A2AF7FA97}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2452,7 +2480,36 @@
         <v>180</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="17"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B33:B36"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G26" r:id="rId1" xr:uid="{12E139AF-E3B9-40B0-BFDC-B8A4B74E82B5}"/>

--- a/PhoneInfoServerIIS/Dev/Record.xlsx
+++ b/PhoneInfoServerIIS/Dev/Record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作文档\老秦项目\荆州项目\PhoneInfoServerIIS\PhoneInfoServerIIS\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\PhoneInfoServerIIS\PhoneInfoServerIIS\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C24619-26EE-49BC-B8E7-6B75BA57A908}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F9591-C08D-4FB8-A8FA-C2E4B9C70A16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="9285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="191">
   <si>
     <t>项目</t>
   </si>
@@ -563,10 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,55 +654,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加账号接口、工参接口、铁塔工参接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UploadTtLteCellInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取测试组信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可传递GroupID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddSysModule</t>
+  </si>
+  <si>
+    <t>DeleteSysModule</t>
+  </si>
+  <si>
+    <t>UpdateSysModule</t>
+  </si>
+  <si>
+    <t>GetSysModule</t>
+  </si>
+  <si>
+    <t>增删改查 系统查询模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GetLteCellInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GetTtLteCellInfo</t>
-  </si>
-  <si>
-    <t>UploadTtLteCellInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GetDtGroup</t>
-  </si>
-  <si>
-    <t>获取测试组信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可传递GroupID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UploadDtGroup</t>
-  </si>
-  <si>
-    <t>上传测试组信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddSysModule</t>
-  </si>
-  <si>
-    <t>DeleteSysModule</t>
-  </si>
-  <si>
-    <t>UpdateSysModule</t>
-  </si>
-  <si>
-    <t>GetSysModule</t>
-  </si>
-  <si>
-    <t>增删改查 系统查询模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存测试组信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dt_Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteDtGroup</t>
+  </si>
+  <si>
+    <t>删除测试组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDtGroup</t>
+  </si>
+  <si>
+    <t>更新测试组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -819,15 +841,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -886,12 +899,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1298,7 +1311,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1377,7 +1390,7 @@
         <v>43468</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -1883,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC083895-FA8B-4D2D-BD04-6F2A2AF7FA97}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1953,7 +1966,7 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G30" si="0">"http://www.51kpi.cn:7062/default.ashx/?func="&amp; A3</f>
+        <f t="shared" ref="G3:G38" si="0">"http://www.51kpi.cn:7062/default.ashx/?func="&amp; A3</f>
         <v>http://www.51kpi.cn:7062/default.ashx/?func=SetConfig</v>
       </c>
     </row>
@@ -2404,17 +2417,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
-        <v>175</v>
+      <c r="A28" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="13" t="s">
-        <v>147</v>
+      <c r="F28" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2422,19 +2435,19 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
-        <v>173</v>
+      <c r="A29" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="13" t="s">
-        <v>147</v>
+      <c r="F29" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2442,19 +2455,19 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
-        <v>174</v>
+      <c r="A30" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="13" t="s">
-        <v>147</v>
+      <c r="F30" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="G30" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2462,53 +2475,145 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="A31" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://www.51kpi.cn:7062/default.ashx/?func=GetDtGroup</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://www.51kpi.cn:7062/default.ashx/?func=UploadDtGroup</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://www.51kpi.cn:7062/default.ashx/?func=DeleteDtGroup</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://www.51kpi.cn:7062/default.ashx/?func=AddSysModule</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://www.51kpi.cn:7062/default.ashx/?func=DeleteSysModule</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://www.51kpi.cn:7062/default.ashx/?func=UpdateSysModule</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="17"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://www.51kpi.cn:7062/default.ashx/?func=GetSysModule</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2811,7 +2916,7 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2831,7 +2936,7 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3011,7 +3116,7 @@
         <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3157,8 +3262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBBD887-4149-458E-AB42-2FA42A4BF68A}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3166,7 +3271,7 @@
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="62.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -3294,7 +3399,7 @@
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3314,7 +3419,7 @@
         <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3454,7 +3559,7 @@
         <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3511,7 +3616,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" t="str">
         <f>E22&amp;A23 &amp;","</f>
@@ -3520,7 +3625,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ref="E24:E34" si="4">E23&amp;A24 &amp;","</f>
@@ -3529,7 +3634,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="4"/>
@@ -3538,7 +3643,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="4"/>
@@ -3547,7 +3652,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="4"/>
@@ -3556,7 +3661,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="4"/>
@@ -3565,7 +3670,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="4"/>
@@ -3574,7 +3679,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="4"/>
@@ -3583,7 +3688,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="4"/>
@@ -3592,7 +3697,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="4"/>
@@ -3601,7 +3706,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="4"/>
@@ -3623,29 +3728,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17304E-9E65-4714-B750-2605845229A5}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D1" t="str">
         <f>"CREATE TABLE "&amp;C1&amp;"("&amp;D18 &amp;")"</f>
-        <v>CREATE TABLE test_Group(Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),imei_ct varchar(50),phone_ct varchar(50),modified_datetime varchar(50),modified_by varchar(50),demo varchar(50),)</v>
+        <v>CREATE TABLE Dt_Group(Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),imei_ct varchar(50),phone_ct varchar(50),modified_datetime varchar(50),modified_by varchar(50),demo varchar(50),)</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>124</v>
@@ -3699,17 +3808,17 @@
         <v>Id number,province varchar(50),city varchar(50),</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E18" si="1">" row("""&amp; A4 &amp;""".ToUpper) = itm."&amp; A4</f>
+        <f t="shared" ref="E4:E19" si="1">" row("""&amp; A4 &amp;""".ToUpper) = itm."&amp; A4</f>
         <v xml:space="preserve"> row("city".ToUpper) = itm.city</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F18" si="2">A4 &amp;":"""&amp; ""&amp;""","</f>
+        <f t="shared" ref="F4:F19" si="2">A4 &amp;":"""&amp; ""&amp;""","</f>
         <v>city:"",</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>125</v>
@@ -3733,10 +3842,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3757,10 +3866,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3781,10 +3890,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3805,10 +3914,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3829,10 +3938,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3853,10 +3962,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ref="C11:C18" si="4">A11 &amp;" "&amp;B11 &amp;","</f>
@@ -3877,10 +3986,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="4"/>
@@ -3901,10 +4010,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="4"/>
@@ -3925,10 +4034,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="4"/>
@@ -3949,10 +4058,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="4"/>
@@ -3973,10 +4082,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="4"/>
@@ -3997,10 +4106,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="4"/>
@@ -4021,10 +4130,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="4"/>
@@ -4041,6 +4150,30 @@
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>demo:"",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ref="C19" si="6">A19 &amp;" "&amp;B19 &amp;","</f>
+        <v>memo varchar(80),</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19" si="7">D18&amp;C19</f>
+        <v>Id number,province varchar(50),city varchar(50),groupId varchar(50),line varchar(50),name_cm varchar(50),imei_cm varchar(50),phone_cm varchar(50),name_cu varchar(50),imei_cu varchar(50),phone_cu varchar(50),name_ct varchar(50),imei_ct varchar(50),phone_ct varchar(50),modified_datetime varchar(50),modified_by varchar(50),demo varchar(50),memo varchar(80),</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> row("memo".ToUpper) = itm.memo</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>memo:"",</v>
       </c>
     </row>
   </sheetData>
